--- a/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 31,95</t>
+          <t>-18,97; 33,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 51,66</t>
+          <t>-3,69; 51,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-44,11; -11,11</t>
+          <t>-43,29; -10,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 32,39</t>
+          <t>-20,16; 33,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 28,06</t>
+          <t>-27,76; 23,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,47; -11,33</t>
+          <t>-45,92; -11,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 24,04</t>
+          <t>-12,38; 24,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 29,84</t>
+          <t>-8,58; 30,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-37,63; -14,57</t>
+          <t>-37,37; -14,47</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 240,57</t>
+          <t>-62,57; 239,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 410,38</t>
+          <t>-16,15; 418,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,8; 216,45</t>
+          <t>-54,9; 227,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 196,94</t>
+          <t>-82,6; 155,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 136,62</t>
+          <t>-38,89; 141,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 156,61</t>
+          <t>-25,99; 185,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 14,95</t>
+          <t>-6,49; 15,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 13,82</t>
+          <t>-8,53; 14,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,7; -19,27</t>
+          <t>-36,86; -19,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 15,85</t>
+          <t>-9,76; 13,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 18,48</t>
+          <t>-6,72; 18,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,18; -16,37</t>
+          <t>-34,35; -16,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 12,4</t>
+          <t>-5,02; 11,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 12,34</t>
+          <t>-5,04; 11,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-33,36; -20,29</t>
+          <t>-33,41; -20,59</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 51,85</t>
+          <t>-15,97; 54,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 48,96</t>
+          <t>-21,98; 49,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,87; -63,64</t>
+          <t>-92,09; -64,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 60,84</t>
+          <t>-25,94; 48,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 67,27</t>
+          <t>-17,37; 70,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,09; -58,51</t>
+          <t>-89,57; -59,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 42,55</t>
+          <t>-13,62; 40,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 41,29</t>
+          <t>-14,3; 37,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-87,6; -67,93</t>
+          <t>-88,39; -68,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 4,76</t>
+          <t>-12,49; 4,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 9,52</t>
+          <t>-7,64; 9,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -16,76</t>
+          <t>-30,9; -16,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 14,53</t>
+          <t>-2,44; 16,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 16,1</t>
+          <t>-2,02; 15,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -0,71</t>
+          <t>-15,16; -0,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 7,7</t>
+          <t>-5,46; 7,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 10,04</t>
+          <t>-2,18; 9,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,12; -11,09</t>
+          <t>-21,77; -11,28</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 16,18</t>
+          <t>-32,66; 16,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 32,42</t>
+          <t>-20,49; 34,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,6; -56,59</t>
+          <t>-79,81; -55,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 77,01</t>
+          <t>-8,96; 84,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 83,54</t>
+          <t>-6,58; 83,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,96; -2,26</t>
+          <t>-53,17; 0,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 29,69</t>
+          <t>-17,26; 28,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 40,54</t>
+          <t>-6,65; 38,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,17; -43,29</t>
+          <t>-66,83; -43,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 22,79</t>
+          <t>3,97; 22,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 24,67</t>
+          <t>7,03; 24,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 6,11</t>
+          <t>-11,26; 5,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 17,03</t>
+          <t>-3,13; 15,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 18,9</t>
+          <t>1,04; 19,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 8,93</t>
+          <t>-13,41; 10,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 17,62</t>
+          <t>3,61; 16,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,76; 19,88</t>
+          <t>6,65; 20,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 5,63</t>
+          <t>-9,04; 4,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,79; 136,02</t>
+          <t>14,71; 137,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,97; 156,98</t>
+          <t>27,84; 153,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 38,83</t>
+          <t>-43,53; 33,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 82,07</t>
+          <t>-10,93; 72,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 89,7</t>
+          <t>3,27; 90,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 45,7</t>
+          <t>-46,8; 51,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,95; 88,62</t>
+          <t>13,64; 84,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,14; 99,32</t>
+          <t>24,29; 99,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 28,5</t>
+          <t>-35,14; 19,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,24; 34,01</t>
+          <t>14,71; 33,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,49; 23,94</t>
+          <t>6,95; 24,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 19,38</t>
+          <t>1,66; 18,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,63; 28,81</t>
+          <t>10,92; 29,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 15,7</t>
+          <t>-2,42; 15,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 7,13</t>
+          <t>-9,63; 6,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,47; 29,09</t>
+          <t>16,22; 29,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,94; 17,72</t>
+          <t>4,5; 16,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 10,93</t>
+          <t>-1,26; 10,45</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>57,7; 167,87</t>
+          <t>49,46; 162,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,38; 116,33</t>
+          <t>23,65; 121,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,78; 93,13</t>
+          <t>5,39; 89,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>30,16; 108,26</t>
+          <t>31,18; 111,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 58,74</t>
+          <t>-5,84; 56,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 26,31</t>
+          <t>-28,87; 24,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>52,41; 118,68</t>
+          <t>51,36; 118,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>17,09; 74,72</t>
+          <t>14,76; 67,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 44,34</t>
+          <t>-3,44; 43,36</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,68; 14,67</t>
+          <t>5,68; 14,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,95</t>
+          <t>5,04; 14,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -6,73</t>
+          <t>-14,41; -6,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,96; 14,74</t>
+          <t>4,64; 14,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,42; 11,44</t>
+          <t>2,21; 11,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -4,18</t>
+          <t>-13,47; -3,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,48</t>
+          <t>6,82; 13,33</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,4</t>
+          <t>4,91; 11,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -6,99</t>
+          <t>-12,86; -6,96</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>18,65; 56,41</t>
+          <t>18,59; 58,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>15,6; 55,09</t>
+          <t>17,03; 55,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,74; -25,59</t>
+          <t>-48,06; -25,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,82; 57,57</t>
+          <t>15,5; 57,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,43; 43,91</t>
+          <t>6,78; 46,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -15,17</t>
+          <t>-44,35; -15,03</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,26; 50,99</t>
+          <t>23,03; 50,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>16,32; 43,56</t>
+          <t>16,8; 43,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,92; -26,47</t>
+          <t>-43,97; -26,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,07</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-24,49</t>
+          <t>-25,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-26,22</t>
+          <t>-27,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-25,26</t>
+          <t>-26,16</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 33,47</t>
+          <t>-8,3; 14,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 51,43</t>
+          <t>-6,72; 15,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,29; -10,53</t>
+          <t>-33,18; -16,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 33,72</t>
+          <t>-4,31; 16,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 23,27</t>
+          <t>-4,6; 15,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,92; -11,24</t>
+          <t>-34,29; -18,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 24,48</t>
+          <t>-3,54; 11,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 30,63</t>
+          <t>-1,68; 13,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-37,37; -14,47</t>
+          <t>-31,88; -20,47</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>102,36%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-79,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,28%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-84,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-81,99%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 239,85</t>
+          <t>-22,47; 54,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 418,21</t>
+          <t>-17,86; 56,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,47; -61,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,9; 227,11</t>
+          <t>-12,77; 58,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,6; 155,11</t>
+          <t>-12,83; 55,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,59; -67,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 141,82</t>
+          <t>-10,02; 42,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 185,61</t>
+          <t>-4,83; 47,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,12; -71,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-28,04</t>
+          <t>-7,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-25,53</t>
+          <t>-23,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-26,84</t>
+          <t>-16,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 15,63</t>
+          <t>-2,08; 15,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 14,7</t>
+          <t>-0,86; 15,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,86; -19,69</t>
+          <t>-15,5; -0,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 13,19</t>
+          <t>-12,74; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 18,59</t>
+          <t>-6,88; 9,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,35; -16,71</t>
+          <t>-30,65; -16,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 11,73</t>
+          <t>-4,94; 7,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 11,35</t>
+          <t>-2,21; 9,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-33,41; -20,59</t>
+          <t>-21,37; -11,21</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-82,33%</t>
+          <t>-32,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>-11,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-77,72%</t>
+          <t>-69,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-80,18%</t>
+          <t>-56,56%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 54,71</t>
+          <t>-7,54; 78,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 49,81</t>
+          <t>-5,23; 84,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-92,09; -64,02</t>
+          <t>-54,3; -2,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 48,96</t>
+          <t>-33,09; 16,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 70,12</t>
+          <t>-17,82; 34,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,57; -59,53</t>
+          <t>-79,58; -57,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 40,09</t>
+          <t>-15,9; 29,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 37,2</t>
+          <t>-6,58; 35,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,39; -68,34</t>
+          <t>-66,83; -42,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-23,61</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>15,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,29</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 4,92</t>
+          <t>-2,19; 16,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 9,46</t>
+          <t>1,34; 19,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,9; -16,47</t>
+          <t>-12,41; 33,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 16,0</t>
+          <t>4,57; 23,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 15,67</t>
+          <t>6,43; 25,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -0,26</t>
+          <t>-10,92; 5,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 7,24</t>
+          <t>3,61; 17,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 9,86</t>
+          <t>6,84; 19,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -11,28</t>
+          <t>-8,17; 18,8</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,28%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-70,27%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>65,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-32,23%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-56,4%</t>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 16,79</t>
+          <t>-7,5; 77,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 34,23</t>
+          <t>3,57; 90,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,81; -55,95</t>
+          <t>-45,58; 192,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 84,35</t>
+          <t>16,37; 137,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 83,08</t>
+          <t>22,86; 151,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,17; 0,42</t>
+          <t>-41,31; 35,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 28,47</t>
+          <t>14,0; 85,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 38,51</t>
+          <t>25,75; 101,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,83; -43,35</t>
+          <t>-32,21; 90,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,72</t>
+          <t>20,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,98</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>25,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>15,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>22,59</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>4,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 22,36</t>
+          <t>9,93; 29,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 24,52</t>
+          <t>-1,57; 16,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 5,52</t>
+          <t>-8,98; 8,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 15,92</t>
+          <t>16,27; 33,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 19,47</t>
+          <t>5,95; 23,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 10,52</t>
+          <t>2,23; 18,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 16,72</t>
+          <t>16,13; 28,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 20,02</t>
+          <t>4,39; 17,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 4,05</t>
+          <t>-1,02; 10,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>65,54%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76,34%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,78%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>102,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>60,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,71; 137,96</t>
+          <t>28,24; 116,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,84; 153,34</t>
+          <t>-4,54; 60,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 33,54</t>
+          <t>-25,86; 33,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 72,85</t>
+          <t>57,13; 165,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 90,22</t>
+          <t>21,11; 115,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 51,5</t>
+          <t>8,42; 89,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,64; 84,72</t>
+          <t>52,51; 119,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,29; 99,98</t>
+          <t>14,55; 69,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 19,53</t>
+          <t>-3,4; 41,55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>25,28</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15,07</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20,09</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,59</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,93</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-8,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,71; 33,42</t>
+          <t>4,77; 15,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,95; 24,56</t>
+          <t>2,59; 11,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 18,77</t>
+          <t>-12,26; 3,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,92; 29,32</t>
+          <t>5,53; 14,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 15,33</t>
+          <t>4,85; 14,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 6,57</t>
+          <t>-15,08; -7,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,22; 29,35</t>
+          <t>6,89; 13,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 16,73</t>
+          <t>5,0; 11,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 10,45</t>
+          <t>-12,34; -2,76</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>102,33%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>-24,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>64,88%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>-38,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>-32,08%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49,46; 162,59</t>
+          <t>15,67; 59,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23,65; 121,43</t>
+          <t>7,85; 46,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,39; 89,61</t>
+          <t>-41,54; 14,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>31,18; 111,93</t>
+          <t>17,91; 57,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 56,95</t>
+          <t>15,63; 55,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 24,03</t>
+          <t>-49,57; -26,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>51,36; 118,8</t>
+          <t>22,88; 49,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,76; 67,41</t>
+          <t>16,61; 43,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 43,36</t>
+          <t>-41,93; -8,34</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>10,33</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>9,44</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-10,68</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>9,93</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>10,14</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-9,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>5,68; 14,89</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 14,04</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-14,41; -6,65</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 14,61</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 11,92</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-13,47; -3,91</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,82; 13,33</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 11,6</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-12,86; -6,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>36,97%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>33,78%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-38,22%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>35,34%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>24,53%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-32,08%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>36,19%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>29,33%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-35,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>18,59; 58,37</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>17,03; 55,0</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-48,06; -25,67</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>15,5; 57,24</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 46,11</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-44,35; -15,03</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>23,03; 50,38</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>16,8; 43,95</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-43,97; -26,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
